--- a/templates/BSCompare.xlsx
+++ b/templates/BSCompare.xlsx
@@ -138,7 +138,7 @@
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
   <si>
-    <t>a9de02f6-bbd2-4e8f-a6ab-68355936ff17</t>
+    <t>7dd0ac26-fb75-404e-95ff-670717c13e68</t>
   </si>
 </sst>
 </file>
@@ -985,7 +985,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -996,7 +996,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2068,7 +2070,7 @@
       </c>
       <c r="B37" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=a9de02f6-bbd2-4e8f-a6ab-68355936ff17</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=7dd0ac26-fb75-404e-95ff-670717c13e68</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2095,7 +2097,7 @@
       </c>
       <c r="B41" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=a9de02f6-bbd2-4e8f-a6ab-68355936ff17</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=7dd0ac26-fb75-404e-95ff-670717c13e68</v>
       </c>
     </row>
   </sheetData>

--- a/templates/BSCompare.xlsx
+++ b/templates/BSCompare.xlsx
@@ -138,7 +138,7 @@
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
   <si>
-    <t>7dd0ac26-fb75-404e-95ff-670717c13e68</t>
+    <t>e7fdf4cb-0a89-4cd2-afcd-7b14e27e2e0d</t>
   </si>
 </sst>
 </file>
@@ -985,7 +985,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -996,9 +996,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2070,7 +2068,7 @@
       </c>
       <c r="B37" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=7dd0ac26-fb75-404e-95ff-670717c13e68</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=e7fdf4cb-0a89-4cd2-afcd-7b14e27e2e0d</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2097,7 +2095,7 @@
       </c>
       <c r="B41" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=7dd0ac26-fb75-404e-95ff-670717c13e68</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=e7fdf4cb-0a89-4cd2-afcd-7b14e27e2e0d</v>
       </c>
     </row>
   </sheetData>

--- a/templates/BSCompare.xlsx
+++ b/templates/BSCompare.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="12660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="BS Compare" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
   <si>
-    <t>e7fdf4cb-0a89-4cd2-afcd-7b14e27e2e0d</t>
+    <t>7bd3853c-f18f-44ab-836e-f65877d13805</t>
   </si>
 </sst>
 </file>
@@ -985,7 +985,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -998,14 +998,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="59.5703125" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="6" max="10" width="20.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
@@ -1068,7 +1068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="23.65" customHeight="1">
+    <row r="5" spans="1:11" ht="23.7" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="15" thickBot="1">
       <c r="A6" s="44" t="s">
         <v>33</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" hidden="1">
+    <row r="15" spans="1:11" ht="28.8" hidden="1">
       <c r="A15" s="41" t="s">
         <v>14</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" hidden="1" thickBot="1">
+    <row r="16" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A16" s="41" t="s">
         <v>14</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1">
+    <row r="19" spans="1:11" ht="15" thickBot="1">
       <c r="A19" s="42" t="s">
         <v>25</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+    <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23" s="42" t="s">
         <v>25</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="24.75">
+    <row r="26" spans="1:11" ht="24.6">
       <c r="A26" s="42" t="s">
         <v>25</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1">
+    <row r="27" spans="1:11" ht="15" thickBot="1">
       <c r="A27" s="42" t="s">
         <v>25</v>
       </c>
@@ -2032,8 +2032,8 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickTop="1"/>
-    <row r="32" spans="1:11" ht="30">
+    <row r="28" spans="1:11" ht="15" thickTop="1"/>
+    <row r="32" spans="1:11" ht="28.2">
       <c r="A32" s="35" t="s">
         <v>31</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="60">
+    <row r="35" spans="1:3" ht="42">
       <c r="A35" s="45" t="s">
         <v>26</v>
       </c>
@@ -2062,13 +2062,13 @@
       </c>
       <c r="B36" s="36"/>
     </row>
-    <row r="37" spans="1:3" ht="30">
+    <row r="37" spans="1:3" ht="28.8">
       <c r="A37" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=e7fdf4cb-0a89-4cd2-afcd-7b14e27e2e0d</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=7bd3853c-f18f-44ab-836e-f65877d13805</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2089,13 +2089,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30">
+    <row r="41" spans="1:3" ht="28.8">
       <c r="A41" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=e7fdf4cb-0a89-4cd2-afcd-7b14e27e2e0d</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=7bd3853c-f18f-44ab-836e-f65877d13805</v>
       </c>
     </row>
   </sheetData>

--- a/templates/BSCompare.xlsx
+++ b/templates/BSCompare.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="12660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="BS Compare" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
   <si>
-    <t>a9de02f6-bbd2-4e8f-a6ab-68355936ff17</t>
+    <t>7bd3853c-f18f-44ab-836e-f65877d13805</t>
   </si>
 </sst>
 </file>
@@ -985,7 +985,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -998,14 +998,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="59.5703125" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="6" max="10" width="20.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
@@ -1068,7 +1068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="23.65" customHeight="1">
+    <row r="5" spans="1:11" ht="23.7" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="15" thickBot="1">
       <c r="A6" s="44" t="s">
         <v>33</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" hidden="1">
+    <row r="15" spans="1:11" ht="28.8" hidden="1">
       <c r="A15" s="41" t="s">
         <v>14</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" hidden="1" thickBot="1">
+    <row r="16" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A16" s="41" t="s">
         <v>14</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1">
+    <row r="19" spans="1:11" ht="15" thickBot="1">
       <c r="A19" s="42" t="s">
         <v>25</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+    <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23" s="42" t="s">
         <v>25</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="24.75">
+    <row r="26" spans="1:11" ht="24.6">
       <c r="A26" s="42" t="s">
         <v>25</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1">
+    <row r="27" spans="1:11" ht="15" thickBot="1">
       <c r="A27" s="42" t="s">
         <v>25</v>
       </c>
@@ -2032,8 +2032,8 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickTop="1"/>
-    <row r="32" spans="1:11" ht="30">
+    <row r="28" spans="1:11" ht="15" thickTop="1"/>
+    <row r="32" spans="1:11" ht="28.2">
       <c r="A32" s="35" t="s">
         <v>31</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="60">
+    <row r="35" spans="1:3" ht="42">
       <c r="A35" s="45" t="s">
         <v>26</v>
       </c>
@@ -2062,13 +2062,13 @@
       </c>
       <c r="B36" s="36"/>
     </row>
-    <row r="37" spans="1:3" ht="30">
+    <row r="37" spans="1:3" ht="28.8">
       <c r="A37" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=a9de02f6-bbd2-4e8f-a6ab-68355936ff17</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=7bd3853c-f18f-44ab-836e-f65877d13805</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2089,13 +2089,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30">
+    <row r="41" spans="1:3" ht="28.8">
       <c r="A41" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=a9de02f6-bbd2-4e8f-a6ab-68355936ff17</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=7bd3853c-f18f-44ab-836e-f65877d13805</v>
       </c>
     </row>
   </sheetData>

--- a/templates/BSCompare.xlsx
+++ b/templates/BSCompare.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="BS Compare" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
   <si>
-    <t>7bd3853c-f18f-44ab-836e-f65877d13805</t>
+    <t>1550e713-c853-4a17-a6e5-7620b8c26129</t>
   </si>
 </sst>
 </file>
@@ -696,9 +696,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -712,6 +709,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -985,7 +985,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -996,16 +996,18 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="59.5546875" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="20.88671875" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" customWidth="1"/>
+    <col min="6" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
@@ -1068,7 +1070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="23.7" customHeight="1">
+    <row r="5" spans="1:11" ht="23.65" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1105,8 +1107,8 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A6" s="43" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -1149,7 +1151,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" hidden="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="14" t="e">
@@ -1193,7 +1195,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="18" t="e">
@@ -1237,7 +1239,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="18" t="e">
@@ -1281,7 +1283,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="18" t="e">
@@ -1325,7 +1327,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="18" t="e">
@@ -1369,7 +1371,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="18" t="e">
@@ -1413,7 +1415,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="18" t="e">
@@ -1457,7 +1459,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="18" t="e">
@@ -1500,8 +1502,8 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.8" hidden="1">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:11" ht="30" hidden="1">
+      <c r="A15" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="18" t="e">
@@ -1544,8 +1546,8 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" hidden="1" thickBot="1">
-      <c r="A16" s="41" t="s">
+    <row r="16" spans="1:11" ht="15.75" hidden="1" thickBot="1">
+      <c r="A16" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="22" t="e">
@@ -1589,7 +1591,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="26" t="e">
@@ -1633,7 +1635,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="29" t="e">
@@ -1676,8 +1678,8 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" thickBot="1">
-      <c r="A19" s="42" t="s">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A19" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="29" t="e">
@@ -1721,11 +1723,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="8.25" customHeight="1" thickTop="1">
-      <c r="A20" s="43"/>
+      <c r="A20" s="42"/>
       <c r="C20" s="27"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="31" t="e">
@@ -1769,7 +1771,7 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="27" t="e">
@@ -1812,8 +1814,8 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1">
-      <c r="A23" s="42" t="s">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A23" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="27" t="e">
@@ -1857,7 +1859,7 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="27" t="e">
@@ -1901,7 +1903,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="27" t="e">
@@ -1944,8 +1946,8 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="24.6">
-      <c r="A26" s="42" t="s">
+    <row r="26" spans="1:11" ht="24.75">
+      <c r="A26" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="27" t="e">
@@ -1988,8 +1990,8 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" thickBot="1">
-      <c r="A27" s="42" t="s">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A27" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="34" t="e">
@@ -2032,8 +2034,8 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" thickTop="1"/>
-    <row r="32" spans="1:11" ht="28.2">
+    <row r="28" spans="1:11" ht="15.75" thickTop="1"/>
+    <row r="32" spans="1:11" ht="30">
       <c r="A32" s="35" t="s">
         <v>31</v>
       </c>
@@ -2043,36 +2045,36 @@
       <c r="A33" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="42">
-      <c r="A35" s="45" t="s">
+    <row r="35" spans="1:3" ht="60">
+      <c r="A35" s="44" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="36"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="45" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="36"/>
     </row>
-    <row r="37" spans="1:3" ht="28.8">
+    <row r="37" spans="1:3" ht="30">
       <c r="A37" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=7bd3853c-f18f-44ab-836e-f65877d13805</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=1550e713-c853-4a17-a6e5-7620b8c26129</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="45" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2085,17 +2087,17 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="28.8">
+    <row r="41" spans="1:3" ht="30">
       <c r="A41" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=7bd3853c-f18f-44ab-836e-f65877d13805</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=1550e713-c853-4a17-a6e5-7620b8c26129</v>
       </c>
     </row>
   </sheetData>

--- a/templates/BSCompare.xlsx
+++ b/templates/BSCompare.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="12660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="BS Compare" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
     <t>THIS KEY IS FOR DEMO PURPOSES AND WILL EXPIRE. PLEASE CREATE AN ACCOUNT AND GENERATE A KEY TO REPLACE THE ONE IN THE CELL AT LEFT http://xbrl.us/apirequest</t>
   </si>
   <si>
-    <t>1550e713-c853-4a17-a6e5-7620b8c26129</t>
+    <t>9171cbef-c943-46c0-8c37-1c64f5dc737a</t>
   </si>
 </sst>
 </file>
@@ -985,7 +985,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -997,17 +997,17 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="59.5703125" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="6" max="10" width="20.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
@@ -1070,7 +1070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="23.65" customHeight="1">
+    <row r="5" spans="1:11" ht="23.7" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="15" thickBot="1">
       <c r="A6" s="43" t="s">
         <v>33</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" hidden="1">
+    <row r="15" spans="1:11" ht="28.8" hidden="1">
       <c r="A15" s="40" t="s">
         <v>14</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" hidden="1" thickBot="1">
+    <row r="16" spans="1:11" ht="15" hidden="1" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>14</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1">
+    <row r="19" spans="1:11" ht="15" thickBot="1">
       <c r="A19" s="41" t="s">
         <v>25</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+    <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23" s="41" t="s">
         <v>25</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="24.75">
+    <row r="26" spans="1:11" ht="24.6">
       <c r="A26" s="41" t="s">
         <v>25</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1">
+    <row r="27" spans="1:11" ht="15" thickBot="1">
       <c r="A27" s="41" t="s">
         <v>25</v>
       </c>
@@ -2034,8 +2034,8 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickTop="1"/>
-    <row r="32" spans="1:11" ht="30">
+    <row r="28" spans="1:11" ht="15" thickTop="1"/>
+    <row r="32" spans="1:11" ht="28.2">
       <c r="A32" s="35" t="s">
         <v>31</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="60">
+    <row r="35" spans="1:3" ht="42">
       <c r="A35" s="44" t="s">
         <v>26</v>
       </c>
@@ -2064,13 +2064,13 @@
       </c>
       <c r="B36" s="36"/>
     </row>
-    <row r="37" spans="1:3" ht="30">
+    <row r="37" spans="1:3" ht="28.8">
       <c r="A37" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=1550e713-c853-4a17-a6e5-7620b8c26129</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlValues&amp;API_Key=9171cbef-c943-46c0-8c37-1c64f5dc737a</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2091,13 +2091,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30">
+    <row r="41" spans="1:3" ht="28.8">
       <c r="A41" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="38" t="str">
         <f>"http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key="&amp;B33&amp;""</f>
-        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=1550e713-c853-4a17-a6e5-7620b8c26129</v>
+        <v>http://csuite.xbrl.us/php/dispatch.php?Task=xbrlBaseElement&amp;API_Key=9171cbef-c943-46c0-8c37-1c64f5dc737a</v>
       </c>
     </row>
   </sheetData>
